--- a/itog/start/ИНРТ.100.00.00.000 Перемешиватель старт/ИНРТ.100.00.00.000 Перемешиватель/ИНРТ.100.00.00.000 Перемешиватель_tree_structure.xlsx
+++ b/itog/start/ИНРТ.100.00.00.000 Перемешиватель старт/ИНРТ.100.00.00.000 Перемешиватель/ИНРТ.100.00.00.000 Перемешиватель_tree_structure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,228 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>--ИНРТ.100.01.00.000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>--ИНРТ.100.02.00.000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>--ИНРТ.100.01.02.000</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>--ИНРТ.100.01.01.002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>--MA01-20.15.150</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>20</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>--BB01-NMRV</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>wer</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Сборочная единица</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Дополнительная информация</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
